--- a/Definitions/4_Definitions.xlsx
+++ b/Definitions/4_Definitions.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Books" sheetId="2" r:id="rId2"/>
+    <sheet name="Sorting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Tab Name</t>
   </si>
@@ -69,6 +70,60 @@
   </si>
   <si>
     <t>Aho,Hopcroft and Ullman The Design and Analysis of Computer Algorithms,1974</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm Design Paradigm</t>
+  </si>
+  <si>
+    <t>Dynamic Programming algorithm Design Paradigm</t>
+  </si>
+  <si>
+    <t>NP Complete Problems</t>
+  </si>
+  <si>
+    <t>Example application/implementations:
+Genome sequence alignment, shortest path, communcation networks</t>
+  </si>
+  <si>
+    <t>Example application/implementations:
+1. Minimum Spanning Trees
+2. Scheduling</t>
+  </si>
+  <si>
+    <t>Mathematices for computer science</t>
+  </si>
+  <si>
+    <t>Kleinberg/Tardos, Algorithm Design 2005</t>
+  </si>
+  <si>
+    <t>Dasgupta, Algorithms 2006</t>
+  </si>
+  <si>
+    <t>Coremane, Introduction to Algorithms 2009 (3rd edition)</t>
+  </si>
+  <si>
+    <t>Datastructures and algorithms: The Basic Toolbox, 2008</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Sorting Algorithms</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
   </si>
 </sst>
 </file>
@@ -191,14 +246,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -495,17 +550,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="120.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="115.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -539,6 +594,32 @@
     <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -548,10 +629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,10 +642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
@@ -627,8 +708,33 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -641,4 +747,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>